--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2094606.609927108</v>
+        <v>2190284.980416521</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577127</v>
+        <v>612367.9462114758</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6114431.206798</v>
+        <v>6464262.401136776</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>204.888209111943</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.77087525591661</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.6420895442522</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -868,10 +870,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>60.20762823519352</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -880,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>103.2041483648791</v>
+        <v>180.8930283756565</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.70281976703</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1060,13 +1062,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1102,16 +1104,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>163.0770168338702</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>81.78264969770413</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>45.56984793551693</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>117.2154757523717</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1302,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1342,7 +1344,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>54.44995080874382</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1370,13 +1372,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>368.093954770432</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>48.44660493006273</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>194.9918535962957</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>346.9977411225229</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>46.22496189054569</v>
       </c>
       <c r="T16" t="n">
-        <v>194.9918535962957</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1831,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>66.05557390943409</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2242,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>192.8717243028901</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>201.9491407442906</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2728,7 +2730,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>199.5435079403651</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>211.2730214979434</v>
       </c>
     </row>
     <row r="29">
@@ -3004,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>180.0196592840953</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>218.7757544134943</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3187,19 +3189,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>127.2389759909256</v>
       </c>
       <c r="F34" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3250,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3424,22 +3426,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.4161532312104</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>42.35873703018397</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3481,7 +3483,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>44.46305123648256</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H41" t="n">
-        <v>237.3014661238373</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.54790254396377</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>98.15366458399258</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.594400008716</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3961,10 +3963,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>59.52286283173039</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3983,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V44" t="n">
-        <v>215.953640781663</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4141,10 +4143,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>47.86711243737901</v>
+        <v>38.88019932606051</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4195,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1334.464719255012</v>
+        <v>1151.208790338092</v>
       </c>
       <c r="C2" t="n">
-        <v>907.563989268312</v>
+        <v>944.2510033563315</v>
       </c>
       <c r="D2" t="n">
-        <v>484.2713684533122</v>
+        <v>520.9583825413317</v>
       </c>
       <c r="E2" t="n">
-        <v>462.3348326415738</v>
+        <v>499.0218467295933</v>
       </c>
       <c r="F2" t="n">
-        <v>441.2510548713781</v>
+        <v>477.9380689593976</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.59900654884625</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.59900654884625</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>856.3013579804531</v>
+        <v>403.5871017449302</v>
       </c>
       <c r="L2" t="n">
-        <v>856.3013579804531</v>
+        <v>403.5871017449302</v>
       </c>
       <c r="M2" t="n">
-        <v>856.3013579804531</v>
+        <v>403.5871017449302</v>
       </c>
       <c r="N2" t="n">
-        <v>856.3013579804531</v>
+        <v>882.5260259873587</v>
       </c>
       <c r="O2" t="n">
-        <v>1313.087264683184</v>
+        <v>882.5260259873587</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1361.464950229787</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1572.384561085426</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1572.384561085426</v>
       </c>
       <c r="W2" t="n">
-        <v>1845.599623041337</v>
+        <v>1175.993211385772</v>
       </c>
       <c r="X2" t="n">
-        <v>1837.920028249488</v>
+        <v>1168.313616593924</v>
       </c>
       <c r="Y2" t="n">
-        <v>1754.313083546542</v>
+        <v>1167.016750589218</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.5426250668182</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.036721584323</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>472.196763099608</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>367.4948293725452</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>273.8489990554494</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>179.7952272730534</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.419134035363</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>133.8657769972748</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>133.8657769972748</v>
       </c>
       <c r="K3" t="n">
-        <v>501.1445421254694</v>
+        <v>133.8657769972748</v>
       </c>
       <c r="L3" t="n">
-        <v>501.1445421254694</v>
+        <v>612.8047012397034</v>
       </c>
       <c r="M3" t="n">
-        <v>932.027809635875</v>
+        <v>1091.743625482132</v>
       </c>
       <c r="N3" t="n">
-        <v>932.027809635875</v>
+        <v>1091.743625482132</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>1570.68254972456</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177127</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474806</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.134385394442</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.161246533708</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366926</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.1625231335886</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.469634486881</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.7082609526723</v>
+        <v>684.0447094842442</v>
       </c>
       <c r="C4" t="n">
-        <v>180.7082609526723</v>
+        <v>512.0721463631602</v>
       </c>
       <c r="D4" t="n">
-        <v>180.7082609526723</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="E4" t="n">
-        <v>180.7082609526723</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="F4" t="n">
-        <v>180.7082609526723</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>182.4984037841631</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647548</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>677.4103860167335</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1444.297549031529</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1799.725677711293</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1808.106634375111</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303046</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.933103822181</v>
       </c>
       <c r="T4" t="n">
-        <v>1628.425962247645</v>
+        <v>1657.117317726026</v>
       </c>
       <c r="U4" t="n">
-        <v>1348.241513747949</v>
+        <v>1657.117317726026</v>
       </c>
       <c r="V4" t="n">
-        <v>1066.530046355978</v>
+        <v>1375.405850334055</v>
       </c>
       <c r="W4" t="n">
-        <v>791.6776425284911</v>
+        <v>1100.553446506568</v>
       </c>
       <c r="X4" t="n">
-        <v>549.1137459742962</v>
+        <v>1100.553446506568</v>
       </c>
       <c r="Y4" t="n">
-        <v>322.7709776640382</v>
+        <v>874.2106781963098</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1012.734393912848</v>
+        <v>729.6507098898962</v>
       </c>
       <c r="C5" t="n">
-        <v>989.8740679665525</v>
+        <v>706.7903839436004</v>
       </c>
       <c r="D5" t="n">
-        <v>566.5814471515528</v>
+        <v>687.5381671690047</v>
       </c>
       <c r="E5" t="n">
-        <v>462.3348326415738</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>441.2510548713781</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>399.5154512777223</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>856.3013579804531</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>932.027809635875</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O5" t="n">
-        <v>1388.813716338606</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X5" t="n">
-        <v>1433.879624209084</v>
+        <v>1554.836344226536</v>
       </c>
       <c r="Y5" t="n">
-        <v>1028.542354163974</v>
+        <v>1149.499074181426</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273854</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>501.1445421254694</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>501.1445421254694</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>957.9304488282003</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N6" t="n">
-        <v>1414.716355530931</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O6" t="n">
-        <v>1845.599623041337</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948.231340759624</v>
+        <v>795.2141720205701</v>
       </c>
       <c r="C7" t="n">
-        <v>776.25877763854</v>
+        <v>623.2416088994861</v>
       </c>
       <c r="D7" t="n">
-        <v>612.9420047653107</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="E7" t="n">
-        <v>446.7337989181643</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1798.56100972851</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1555.22166195441</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1555.22166195441</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1555.22166195441</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1555.22166195441</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="X7" t="n">
-        <v>1312.657765400215</v>
+        <v>959.9384314487219</v>
       </c>
       <c r="Y7" t="n">
-        <v>1086.314997089957</v>
+        <v>795.2141720205701</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1012.734393912848</v>
+        <v>1270.775797585523</v>
       </c>
       <c r="C8" t="n">
-        <v>585.8336639261486</v>
+        <v>1247.915471639227</v>
       </c>
       <c r="D8" t="n">
-        <v>162.5410431111488</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E8" t="n">
-        <v>140.6045072994104</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5207295292147</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M8" t="n">
-        <v>856.3013579804531</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="N8" t="n">
-        <v>1313.087264683184</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O8" t="n">
-        <v>1388.813716338606</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="X8" t="n">
-        <v>1433.879624209084</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y8" t="n">
-        <v>1432.582758204378</v>
+        <v>1286.583757836649</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>772.8420314050604</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>1229.627938107791</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M9" t="n">
-        <v>1686.413844810522</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>1686.413844810522</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>790.5193724060665</v>
+        <v>738.9277078106726</v>
       </c>
       <c r="C10" t="n">
-        <v>618.5468092849825</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="D10" t="n">
-        <v>618.5468092849825</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E10" t="n">
-        <v>452.338603437836</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F10" t="n">
-        <v>280.4768292123964</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1573.426011935783</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1573.426011935783</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V10" t="n">
-        <v>1291.714544543811</v>
+        <v>1482.686776502612</v>
       </c>
       <c r="W10" t="n">
-        <v>1016.862140716324</v>
+        <v>1207.834372675125</v>
       </c>
       <c r="X10" t="n">
-        <v>1016.862140716324</v>
+        <v>965.2704761209305</v>
       </c>
       <c r="Y10" t="n">
-        <v>790.5193724060665</v>
+        <v>738.9277078106726</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2029.817440107333</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>2029.817440107333</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.524819292333</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>406.4397193823115</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>1121.948027357811</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L11" t="n">
-        <v>2018.94061817493</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M11" t="n">
-        <v>2915.933208992049</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N11" t="n">
-        <v>2915.933208992049</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O11" t="n">
-        <v>2915.933208992049</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P11" t="n">
-        <v>3624.212488149976</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.212488149976</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3624.212488149976</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3624.212488149976</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3266.723073276225</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3266.723073276225</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2855.003074443973</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2449.665804398863</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299953</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425906</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>344.1817390425906</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L12" t="n">
-        <v>344.1817390425906</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M12" t="n">
-        <v>520.033812663611</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N12" t="n">
-        <v>1417.02640348073</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O12" t="n">
-        <v>1417.02640348073</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.1148556013687</v>
+        <v>968.3942625403945</v>
       </c>
       <c r="C13" t="n">
-        <v>388.1422924802847</v>
+        <v>796.4216994193105</v>
       </c>
       <c r="D13" t="n">
-        <v>388.1422924802847</v>
+        <v>633.1049265460812</v>
       </c>
       <c r="E13" t="n">
-        <v>388.1422924802847</v>
+        <v>466.8967206989347</v>
       </c>
       <c r="F13" t="n">
-        <v>216.2805182548451</v>
+        <v>295.0349464734951</v>
       </c>
       <c r="G13" t="n">
-        <v>216.2805182548451</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T13" t="n">
-        <v>2055.935808897041</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U13" t="n">
-        <v>1775.751360397345</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V13" t="n">
-        <v>1494.039893005374</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="W13" t="n">
-        <v>1219.187489177887</v>
+        <v>1437.300927404847</v>
       </c>
       <c r="X13" t="n">
-        <v>976.6235926236923</v>
+        <v>1194.737030850652</v>
       </c>
       <c r="Y13" t="n">
-        <v>750.2808243134343</v>
+        <v>968.3942625403945</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.48424976299953</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>787.9925577384986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>1684.985148555618</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>1684.985148555618</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>2342.291394605963</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>3050.57067376389</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3624.212488149976</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3624.212488149976</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3266.723073276225</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3266.723073276225</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3266.723073276225</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2861.385803231116</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>79.93089272491136</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>351.6283820045024</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>351.6283820045024</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L15" t="n">
-        <v>351.6283820045024</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M15" t="n">
-        <v>351.6283820045024</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="N15" t="n">
-        <v>1248.620972821622</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="O15" t="n">
-        <v>1335.007093396027</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1335.007093396027</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.1148556013687</v>
+        <v>919.5070618231949</v>
       </c>
       <c r="C16" t="n">
-        <v>388.1422924802847</v>
+        <v>747.5344987021109</v>
       </c>
       <c r="D16" t="n">
-        <v>388.1422924802847</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E16" t="n">
-        <v>388.1422924802847</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F16" t="n">
-        <v>216.2805182548451</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>216.2805182548451</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.897277176128</v>
+        <v>2188.985246808609</v>
       </c>
       <c r="T16" t="n">
-        <v>2055.935808897041</v>
+        <v>2188.985246808609</v>
       </c>
       <c r="U16" t="n">
-        <v>1775.751360397345</v>
+        <v>1908.800798308913</v>
       </c>
       <c r="V16" t="n">
-        <v>1494.039893005374</v>
+        <v>1627.089330916942</v>
       </c>
       <c r="W16" t="n">
-        <v>1219.187489177887</v>
+        <v>1352.236927089455</v>
       </c>
       <c r="X16" t="n">
-        <v>976.6235926236923</v>
+        <v>1109.673030535261</v>
       </c>
       <c r="Y16" t="n">
-        <v>750.2808243134343</v>
+        <v>1109.673030535261</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747413</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905341</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5589,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N18" t="n">
-        <v>692.7876399741681</v>
+        <v>1199.06430284061</v>
       </c>
       <c r="O18" t="n">
-        <v>692.7876399741681</v>
+        <v>1199.06430284061</v>
       </c>
       <c r="P18" t="n">
-        <v>1408.985357012666</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1873.130833875445</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.1370507523521</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="C19" t="n">
-        <v>274.1644876312681</v>
+        <v>814.2573006308322</v>
       </c>
       <c r="D19" t="n">
-        <v>274.1644876312681</v>
+        <v>650.9405277576029</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1941.958004048024</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1661.773555548329</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V19" t="n">
-        <v>1380.062088156358</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W19" t="n">
-        <v>1105.20968432887</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X19" t="n">
-        <v>862.6457877746757</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y19" t="n">
-        <v>636.3030194644177</v>
+        <v>986.2298637519162</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
         <v>2113.800768076616</v>
@@ -5735,10 +5737,10 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
         <v>435.0679631883225</v>
@@ -5750,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>464.906172222724</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3375.06837974776</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5831,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N21" t="n">
         <v>1828.971033901635</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1370507523521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5935,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>1661.773555548329</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V22" t="n">
-        <v>1380.062088156358</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W22" t="n">
-        <v>1105.20968432887</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X22" t="n">
-        <v>862.6457877746757</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y22" t="n">
-        <v>636.3030194644177</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>651.5495334576516</v>
+        <v>786.1869982294937</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6063,28 +6065,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>446.1370507523521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1661.773555548329</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V25" t="n">
-        <v>1380.062088156358</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W25" t="n">
-        <v>1105.20968432887</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="X25" t="n">
-        <v>862.6457877746757</v>
+        <v>1579.63883569697</v>
       </c>
       <c r="Y25" t="n">
-        <v>636.3030194644177</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6309,13 +6311,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.68756743822</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C28" t="n">
-        <v>869.7150043171358</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D28" t="n">
-        <v>706.3982314439065</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E28" t="n">
-        <v>540.1900255967601</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F28" t="n">
-        <v>368.3282513713204</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U28" t="n">
-        <v>1712.153331232334</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V28" t="n">
-        <v>1712.153331232334</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="W28" t="n">
-        <v>1510.594232302672</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="X28" t="n">
-        <v>1268.030335748478</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="Y28" t="n">
-        <v>1041.68756743822</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3375.06837974776</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4220.213029898572</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4928.4923090565</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="U31" t="n">
-        <v>2065.542080025265</v>
+        <v>4716.123969816831</v>
       </c>
       <c r="V31" t="n">
-        <v>2065.542080025265</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,13 +6788,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>105.4776804749704</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.4203922683193</v>
+        <v>3401.365604982158</v>
       </c>
       <c r="C34" t="n">
-        <v>201.4478291472353</v>
+        <v>3401.365604982158</v>
       </c>
       <c r="D34" t="n">
-        <v>201.4478291472353</v>
+        <v>3401.365604982158</v>
       </c>
       <c r="E34" t="n">
-        <v>201.4478291472353</v>
+        <v>3272.841386809506</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>3100.979612584067</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>3591.531573694224</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6931,7 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6938,19 +6940,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>786.1869982294937</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1715.81204584877</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2720.098147267829</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3696.34920575453</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
         <v>4541.493855905342</v>
@@ -7011,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>655.1318596602905</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C37" t="n">
-        <v>483.1592965392065</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="D37" t="n">
-        <v>483.1592965392065</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="E37" t="n">
-        <v>316.95109069206</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F37" t="n">
-        <v>145.0893164666204</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1589.056897064296</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1314.204493236809</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1071.640596682614</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>845.2978283723562</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7175,19 +7177,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>786.1869982294937</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L38" t="n">
-        <v>1715.81204584877</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M38" t="n">
-        <v>2720.098147267829</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N38" t="n">
-        <v>3696.34920575453</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>1801.283937336665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>373.4203922683193</v>
+        <v>1067.07923602298</v>
       </c>
       <c r="C40" t="n">
-        <v>201.4478291472353</v>
+        <v>895.1066729018962</v>
       </c>
       <c r="D40" t="n">
-        <v>201.4478291472353</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>201.4478291472353</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>1257.245204735046</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1990.915505281431</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1990.915505281431</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1567.622884466432</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>1141.645944614289</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>716.5217628036896</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G41" t="n">
-        <v>312.1827003931382</v>
+        <v>435.0679631883228</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623576</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299954</v>
+        <v>325.1003961287815</v>
       </c>
       <c r="K41" t="n">
-        <v>88.09006554780694</v>
+        <v>1040.608704104281</v>
       </c>
       <c r="L41" t="n">
-        <v>985.0826563649263</v>
+        <v>1970.233751723557</v>
       </c>
       <c r="M41" t="n">
-        <v>1882.075247182046</v>
+        <v>2974.519853142615</v>
       </c>
       <c r="N41" t="n">
-        <v>2779.067837999165</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O41" t="n">
-        <v>3624.212488149977</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P41" t="n">
-        <v>3624.212488149977</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3624.212488149977</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3624.212488149977</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3227.821138450324</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2816.101139618071</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2410.763869572962</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>344.1817390425906</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K42" t="n">
-        <v>934.6666656109302</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L42" t="n">
-        <v>1417.02640348073</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M42" t="n">
-        <v>1417.02640348073</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N42" t="n">
-        <v>1417.02640348073</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O42" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>343.6019286254902</v>
+        <v>1185.483835930071</v>
       </c>
       <c r="C43" t="n">
-        <v>171.6293655044062</v>
+        <v>1013.511272808987</v>
       </c>
       <c r="D43" t="n">
-        <v>171.6293655044062</v>
+        <v>850.194499935758</v>
       </c>
       <c r="E43" t="n">
-        <v>171.6293655044062</v>
+        <v>683.9862940886115</v>
       </c>
       <c r="F43" t="n">
-        <v>72.48424976299954</v>
+        <v>512.1245198631719</v>
       </c>
       <c r="G43" t="n">
-        <v>72.48424976299954</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2082.762229695263</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T43" t="n">
-        <v>1839.422881921163</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U43" t="n">
-        <v>1559.238433421467</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V43" t="n">
-        <v>1277.526966029496</v>
+        <v>1710.626312340059</v>
       </c>
       <c r="W43" t="n">
-        <v>1002.674562202009</v>
+        <v>1435.773908512572</v>
       </c>
       <c r="X43" t="n">
-        <v>760.1106656478138</v>
+        <v>1375.649804642137</v>
       </c>
       <c r="Y43" t="n">
-        <v>533.7678973375558</v>
+        <v>1375.649804642137</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2178.117784637993</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1751.217054651293</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1327.924433836293</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>901.9474939841507</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>476.8233121735509</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G44" t="n">
-        <v>72.48424976299954</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H44" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>72.48424976299954</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>787.9925577384986</v>
+        <v>786.1869982294937</v>
       </c>
       <c r="L44" t="n">
-        <v>787.9925577384986</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M44" t="n">
-        <v>787.9925577384986</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N44" t="n">
-        <v>1684.985148555618</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O44" t="n">
-        <v>2530.12979870643</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P44" t="n">
-        <v>3168.127008645794</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3624.212488149977</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3406.077497461429</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3009.686147761776</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2597.966148929523</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2597.966148929523</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>79.93089272491137</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>351.6283820045024</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>942.113308572842</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L45" t="n">
-        <v>942.113308572842</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M45" t="n">
-        <v>942.113308572842</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N45" t="n">
-        <v>942.113308572842</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O45" t="n">
-        <v>1082.954853220308</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>1799.152570258806</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5893799338423</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C46" t="n">
-        <v>616.6168168127583</v>
+        <v>570.9179528567321</v>
       </c>
       <c r="D46" t="n">
-        <v>453.300043939529</v>
+        <v>407.6011799835028</v>
       </c>
       <c r="E46" t="n">
-        <v>287.0918380923825</v>
+        <v>407.6011799835028</v>
       </c>
       <c r="F46" t="n">
-        <v>238.7412194687674</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G46" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H46" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2252.897277176128</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2009.557929402028</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>1729.373480902332</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V46" t="n">
-        <v>1447.662013510361</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W46" t="n">
-        <v>1447.662013510361</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.098116956166</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y46" t="n">
-        <v>978.755348645908</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>38.06915396220047</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7988,19 +7990,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884142</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>114.7742293394937</v>
+        <v>521.3520529641995</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8060,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681978</v>
       </c>
       <c r="M3" t="n">
-        <v>458.3324042602124</v>
+        <v>506.8734716662962</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>506.9485808761904</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>389.8761087718109</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8152,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>68.71811917318276</v>
+        <v>29.03818836740821</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>113.770988142953</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>458.4075134701067</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>378.9827212526459</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8380,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>113.8823246645311</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8526,25 +8528,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>378.5549082613589</v>
       </c>
       <c r="O9" t="n">
-        <v>101.1178171425367</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8617,7 +8619,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.7487166768108</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L11" t="n">
-        <v>944.365164470117</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369258</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8711,7 +8713,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>220.0524529451672</v>
       </c>
       <c r="M12" t="n">
-        <v>200.7251377052779</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>927.3961502510357</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369258</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>701.3366624371804</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9000,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>927.3961502510357</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>110.4305973731367</v>
+        <v>133.9864418936091</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>105.5494758988752</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9176,13 +9178,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>143.6953511146599</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9252,19 +9254,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>740.8880544833419</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>61.91484879908644</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9413,13 +9415,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>500.16489571931</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9477,19 +9479,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>392.4461590409599</v>
       </c>
       <c r="N21" t="n">
-        <v>920.2011215599057</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>590.5593685239236</v>
+        <v>726.5568076874005</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9723,19 +9725,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>650.3413783255763</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9957,16 +9959,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>106.3367244377138</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.6533223166459</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>951.5880457335786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10355,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>56.96224792398087</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>859.128966425699</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,16 +10436,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>26.3038179559056</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>726.5568076874005</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10598,10 +10600,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>143.6953511146608</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>501.0532250901962</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>726.5568076874005</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>728.3675687028222</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10899,31 +10901,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>133.9113326837148</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>254.4681238522057</v>
       </c>
       <c r="K41" t="n">
-        <v>51.52805108249359</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701172</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369261</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719403</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11133,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>509.7471451685729</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>775.9541620884372</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>360.2906876703342</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719403</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>682.0169880116091</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11388,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>165.4360762348144</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>53.62321568318902</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>116.1477950786474</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>45.91410070006327</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.65213952609179</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>122.2087351155108</v>
       </c>
       <c r="T16" t="n">
-        <v>45.91410070006327</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>98.49054987924089</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,19 +24177,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>84.51087971180863</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>22.13019988286482</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>72.56037184884696</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>12.80631912921197</v>
       </c>
     </row>
     <row r="29">
@@ -24892,16 +24894,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>97.36294473060349</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>53.32812537571778</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>37.30714779774938</v>
       </c>
       <c r="F34" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>28.26745191328655</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>122.2356629785262</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>117.2205539080144</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>57.58822861686821</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>71.9894918991926</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>180.6153947569225</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>137.9608799433501</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>122.2760440458062</v>
+        <v>131.2629571571247</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>540977.2849401403</v>
+        <v>542354.176011319</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>540977.2849401403</v>
+        <v>546812.2472298159</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>540977.2849401403</v>
+        <v>546812.2472298159</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448130.9528305497</v>
+        <v>563622.5230547346</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>448130.9528305497</v>
+        <v>563622.5230547346</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448130.9528305498</v>
+        <v>563622.5230547343</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>448130.9528305497</v>
+        <v>563622.5230547346</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>524198.401210047</v>
+        <v>524198.4012100469</v>
       </c>
       <c r="C2" t="n">
         <v>524198.401210047</v>
       </c>
       <c r="D2" t="n">
-        <v>524198.4012100472</v>
+        <v>524198.401210047</v>
       </c>
       <c r="E2" t="n">
-        <v>402200.556210794</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="F2" t="n">
-        <v>402200.5562107941</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="G2" t="n">
-        <v>505827.3628237027</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="H2" t="n">
-        <v>505827.3628237027</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="I2" t="n">
         <v>505827.3628237026</v>
@@ -26341,19 +26343,19 @@
         <v>505827.3628237026</v>
       </c>
       <c r="L2" t="n">
-        <v>505827.3628237027</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="M2" t="n">
         <v>505827.3628237025</v>
       </c>
       <c r="N2" t="n">
+        <v>505827.3628237026</v>
+      </c>
+      <c r="O2" t="n">
         <v>505827.3628237025</v>
       </c>
-      <c r="O2" t="n">
-        <v>402200.5562107939</v>
-      </c>
       <c r="P2" t="n">
-        <v>402200.5562107938</v>
+        <v>505827.3628237027</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695913</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361215</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701974</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207111.2789421974</v>
+        <v>203366.9722795534</v>
       </c>
       <c r="C4" t="n">
-        <v>207111.2789421974</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="D4" t="n">
-        <v>207111.2789421974</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>68898.71414051214</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="F4" t="n">
-        <v>68898.71414051214</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="G4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="H4" t="n">
+        <v>86696.74064784774</v>
+      </c>
+      <c r="I4" t="n">
         <v>86696.74064784776</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>86696.74064784778</v>
       </c>
-      <c r="J4" t="n">
-        <v>86696.74064784776</v>
-      </c>
       <c r="K4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="L4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="M4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="O4" t="n">
-        <v>68898.71414051214</v>
+        <v>86696.74064784765</v>
       </c>
       <c r="P4" t="n">
-        <v>68898.71414051214</v>
+        <v>86696.74064784771</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216126</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100780.6873795008</v>
+        <v>95665.51003874093</v>
       </c>
       <c r="C6" t="n">
-        <v>255406.4079976212</v>
+        <v>242101.5877463864</v>
       </c>
       <c r="D6" t="n">
-        <v>255406.4079976214</v>
+        <v>265508.4214199986</v>
       </c>
       <c r="E6" t="n">
-        <v>145450.1442408003</v>
+        <v>125641.2034307846</v>
       </c>
       <c r="F6" t="n">
-        <v>278213.8122504023</v>
+        <v>341380.559987425</v>
       </c>
       <c r="G6" t="n">
-        <v>239220.6398931154</v>
+        <v>341380.559987425</v>
       </c>
       <c r="H6" t="n">
+        <v>341380.5599874251</v>
+      </c>
+      <c r="I6" t="n">
         <v>341380.5599874252</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>214803.2914071363</v>
+      </c>
+      <c r="K6" t="n">
+        <v>322733.9596304054</v>
+      </c>
+      <c r="L6" t="n">
+        <v>341380.5599874252</v>
+      </c>
+      <c r="M6" t="n">
+        <v>161316.6885322574</v>
+      </c>
+      <c r="N6" t="n">
         <v>341380.5599874251</v>
       </c>
-      <c r="J6" t="n">
-        <v>220658.0430446683</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>341380.5599874252</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>341380.5599874253</v>
-      </c>
-      <c r="M6" t="n">
-        <v>230571.1998782917</v>
-      </c>
-      <c r="N6" t="n">
-        <v>341380.559987425</v>
-      </c>
-      <c r="O6" t="n">
-        <v>278213.8122504021</v>
-      </c>
-      <c r="P6" t="n">
-        <v>278213.8122504019</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353625</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353625</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>217.7435135748899</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>318.5130220887419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.62221948069276</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27549,7 +27551,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27588,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>180.6983260611655</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>318.5130220887419</v>
+        <v>240.8241420779645</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.56148925791496</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>61.00232379328514</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>318.5130220887417</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>346.8575882671396</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>53.03736173750144</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -28020,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>186.4560034876152</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34699,7 +34701,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>2.30455316739113</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>77.19886752926243</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="M3" t="n">
-        <v>435.2356237478844</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>368.1052675669823</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34872,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>46.33731851519627</v>
+        <v>6.65738770942173</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>76.49136530850697</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>435.2356237478845</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>357.2118800478172</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35100,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,25 +35248,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>357.2118800478172</v>
       </c>
       <c r="O9" t="n">
-        <v>77.9459274203145</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35337,7 +35339,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>337.3287571912243</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>197.5373662309376</v>
       </c>
       <c r="M12" t="n">
-        <v>177.6283571929499</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>906.0531220374941</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>663.9457030811562</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>906.0531220374941</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>87.25870765091452</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>69.78487510406583</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35896,13 +35898,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>106.3043917586358</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36133,13 +36135,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>462.7739363632859</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>369.3493785286319</v>
       </c>
       <c r="N21" t="n">
-        <v>898.8580933463641</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>554.7947677291143</v>
+        <v>690.7922068925911</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>627.1694886033541</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>83.23994392538586</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.5286477120479</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>928.4912652212506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37075,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>19.53098502454905</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>821.7380070696748</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>3.207037443577619</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>690.7922068925911</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37318,10 +37320,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>106.3043917586367</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>690.7922068925911</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>690.7922068925909</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>110.8145521713869</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>225.0481643666192</v>
       </c>
       <c r="K41" t="n">
-        <v>15.76345028768425</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374943</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374943</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374943</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>487.2320584543434</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>752.782272366215</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>324.5260868755249</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374943</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>644.4416262013777</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>142.2641865125921</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2190284.980416521</v>
+        <v>2189588.319211431</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114758</v>
+        <v>612367.9462114753</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6464262.401136776</v>
+        <v>6464262.401136777</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>204.888209111943</v>
+        <v>413.1472326127462</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -822,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>60.20762823519352</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>169.0183255205659</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -882,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>180.8930283756565</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>49.53842828501017</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1062,16 +1062,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1104,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>250.6734045084272</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.0770168338702</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>45.56984793551693</v>
+        <v>120.057523490882</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>117.2154757523717</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>53.03228358185952</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1542,10 +1542,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>48.44660493006273</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>117.1585426144803</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1615,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>42.87682513228527</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1773,7 +1773,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1785,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>46.22496189054569</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>66.05557390943409</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>192.8717243028901</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2487,16 +2487,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>75.38193086464887</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>201.9491407442906</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,16 +2772,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>211.2730214979434</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2964,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>180.0196592840953</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>236.6964641468447</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3189,19 +3189,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>127.2389759909256</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3426,22 +3426,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>133.4161532312104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>44.46305123648256</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3748,19 +3748,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396377</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>96.4442051068671</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.594400008716</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3963,10 +3963,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>59.52286283173039</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3985,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>38.88019932606051</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1151.208790338092</v>
+        <v>922.6341650419704</v>
       </c>
       <c r="C2" t="n">
-        <v>944.2510033563315</v>
+        <v>505.3137280593985</v>
       </c>
       <c r="D2" t="n">
-        <v>520.9583825413317</v>
+        <v>486.0615112848029</v>
       </c>
       <c r="E2" t="n">
-        <v>499.0218467295933</v>
+        <v>464.1249754730645</v>
       </c>
       <c r="F2" t="n">
-        <v>477.9380689593976</v>
+        <v>443.0411977028688</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884625</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884625</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>403.5871017449302</v>
+        <v>880.2445183516404</v>
       </c>
       <c r="L2" t="n">
-        <v>403.5871017449302</v>
+        <v>1359.183442594068</v>
       </c>
       <c r="M2" t="n">
-        <v>403.5871017449302</v>
+        <v>1838.122366836496</v>
       </c>
       <c r="N2" t="n">
-        <v>882.5260259873587</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="O2" t="n">
-        <v>882.5260259873587</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229787</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.55042973397</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489013</v>
+        <v>1830.739470489009</v>
       </c>
       <c r="T2" t="n">
-        <v>1830.739470489013</v>
+        <v>1609.813899533643</v>
       </c>
       <c r="U2" t="n">
-        <v>1572.384561085426</v>
+        <v>1351.458990130055</v>
       </c>
       <c r="V2" t="n">
-        <v>1572.384561085426</v>
+        <v>1351.458990130055</v>
       </c>
       <c r="W2" t="n">
-        <v>1175.993211385772</v>
+        <v>1351.458990130055</v>
       </c>
       <c r="X2" t="n">
-        <v>1168.313616593924</v>
+        <v>1343.779395338206</v>
       </c>
       <c r="Y2" t="n">
-        <v>1167.016750589218</v>
+        <v>1342.4825293335</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668182</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.036721584323</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.196763099608</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725452</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554494</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730534</v>
+        <v>92.07822853000779</v>
       </c>
       <c r="H3" t="n">
-        <v>126.419134035363</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="I3" t="n">
-        <v>133.8657769972748</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="J3" t="n">
-        <v>133.8657769972748</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="K3" t="n">
-        <v>133.8657769972748</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="L3" t="n">
-        <v>612.8047012397034</v>
+        <v>789.338548814336</v>
       </c>
       <c r="M3" t="n">
-        <v>1091.743625482132</v>
+        <v>789.338548814336</v>
       </c>
       <c r="N3" t="n">
-        <v>1091.743625482132</v>
+        <v>1268.277473056763</v>
       </c>
       <c r="O3" t="n">
-        <v>1570.68254972456</v>
+        <v>1747.216397299191</v>
       </c>
       <c r="P3" t="n">
-        <v>1935.106764615873</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1935.106764615873</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615873</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177127</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474806</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394442</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533708</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366926</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335886</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.469634486881</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.0447094842442</v>
+        <v>548.7446784859874</v>
       </c>
       <c r="C4" t="n">
-        <v>512.0721463631602</v>
+        <v>376.7721153649034</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7553734899309</v>
+        <v>376.7721153649034</v>
       </c>
       <c r="E4" t="n">
-        <v>348.7553734899309</v>
+        <v>210.5639095177569</v>
       </c>
       <c r="F4" t="n">
-        <v>348.7553734899309</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="G4" t="n">
-        <v>182.4984037841631</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647548</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223127</v>
+        <v>165.7127968734976</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167335</v>
+        <v>520.4021181679184</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>911.5879131381691</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1289.079424014205</v>
       </c>
       <c r="O4" t="n">
-        <v>1801.515820542783</v>
+        <v>1644.507552693968</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375111</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303046</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822181</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="T4" t="n">
-        <v>1657.117317726026</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="U4" t="n">
-        <v>1657.117317726026</v>
+        <v>1764.381183281964</v>
       </c>
       <c r="V4" t="n">
-        <v>1375.405850334055</v>
+        <v>1482.669715889993</v>
       </c>
       <c r="W4" t="n">
-        <v>1100.553446506568</v>
+        <v>1207.817312062506</v>
       </c>
       <c r="X4" t="n">
-        <v>1100.553446506568</v>
+        <v>965.253415508311</v>
       </c>
       <c r="Y4" t="n">
-        <v>874.2106781963098</v>
+        <v>738.9106471980531</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>729.6507098898962</v>
+        <v>966.965586482338</v>
       </c>
       <c r="C5" t="n">
-        <v>706.7903839436004</v>
+        <v>944.1052605360422</v>
       </c>
       <c r="D5" t="n">
-        <v>687.5381671690047</v>
+        <v>520.8126397210425</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>94.83569986890006</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N5" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O5" t="n">
         <v>2224.911252462377</v>
@@ -4597,22 +4597,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>1966.556343058789</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W5" t="n">
-        <v>1966.556343058789</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X5" t="n">
-        <v>1554.836344226536</v>
+        <v>984.0704127381697</v>
       </c>
       <c r="Y5" t="n">
-        <v>1149.499074181426</v>
+        <v>982.7735467334641</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M6" t="n">
-        <v>316.1957143288386</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N6" t="n">
-        <v>866.8612493132769</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>1417.526784297715</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
         <v>1771.166545545054</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.2141720205701</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C7" t="n">
-        <v>623.2416088994861</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D7" t="n">
-        <v>459.9248360262568</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E7" t="n">
-        <v>459.9248360262568</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4725,52 +4725,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1896.161171757579</v>
       </c>
       <c r="W7" t="n">
-        <v>1202.502328002917</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X7" t="n">
-        <v>959.9384314487219</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y7" t="n">
-        <v>795.2141720205701</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="8">
@@ -4786,7 +4786,7 @@
         <v>1247.915471639227</v>
       </c>
       <c r="D8" t="n">
-        <v>1228.663254864631</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E8" t="n">
         <v>802.6863150124886</v>
@@ -4804,28 +4804,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>116.829168004879</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>667.4947029893171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1218.160237973755</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>1768.825772958194</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N8" t="n">
-        <v>1768.825772958194</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O8" t="n">
-        <v>1768.825772958194</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4834,19 +4834,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1745.630772103422</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1745.630772103422</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1699.600622673607</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="X8" t="n">
-        <v>1287.880623841354</v>
+        <v>1691.921027881758</v>
       </c>
       <c r="Y8" t="n">
         <v>1286.583757836649</v>
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>738.9277078106726</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="C10" t="n">
-        <v>620.5282373537315</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>620.5282373537315</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1764.398243894584</v>
+        <v>2171.343289248377</v>
       </c>
       <c r="V10" t="n">
-        <v>1482.686776502612</v>
+        <v>1889.631821856406</v>
       </c>
       <c r="W10" t="n">
-        <v>1207.834372675125</v>
+        <v>1614.779418028919</v>
       </c>
       <c r="X10" t="n">
-        <v>965.2704761209305</v>
+        <v>1372.215521474724</v>
       </c>
       <c r="Y10" t="n">
-        <v>738.9277078106726</v>
+        <v>1145.872753164466</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
         <v>1690.508147261616</v>
@@ -5029,49 +5029,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2467.904347614084</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N11" t="n">
-        <v>3444.155406100785</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O11" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P11" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5083,7 +5083,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5126,16 +5126,16 @@
         <v>109.7493563677404</v>
       </c>
       <c r="L12" t="n">
-        <v>305.3113489363686</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M12" t="n">
-        <v>305.3113489363686</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N12" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
         <v>1910.990343986338</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>968.3942625403945</v>
+        <v>778.6022263052664</v>
       </c>
       <c r="C13" t="n">
-        <v>796.4216994193105</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="D13" t="n">
-        <v>633.1049265460812</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E13" t="n">
-        <v>466.8967206989347</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F13" t="n">
-        <v>295.0349464734951</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
         <v>102.3027134058285</v>
@@ -5199,10 +5199,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1992.33777973203</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U13" t="n">
-        <v>1712.153331232334</v>
+        <v>1994.238731101243</v>
       </c>
       <c r="V13" t="n">
-        <v>1712.153331232334</v>
+        <v>1712.527263709272</v>
       </c>
       <c r="W13" t="n">
-        <v>1437.300927404847</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="X13" t="n">
-        <v>1194.737030850652</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y13" t="n">
-        <v>968.3942625403945</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
         <v>1264.531207409474</v>
@@ -5278,7 +5278,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
         <v>1180.414480198223</v>
@@ -5293,37 +5293,37 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>4935.721337874071</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P14" t="n">
-        <v>4935.721337874071</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="K15" t="n">
-        <v>964.4851292537592</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="L15" t="n">
-        <v>1801.283937336665</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M15" t="n">
-        <v>1801.283937336665</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N15" t="n">
-        <v>1801.283937336665</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
         <v>1910.990343986338</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>919.5070618231949</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>747.5344987021109</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D16" t="n">
-        <v>584.2177258288816</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E16" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F16" t="n">
-        <v>412.355951603442</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5463,25 +5463,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2188.985246808609</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2188.985246808609</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U16" t="n">
-        <v>1908.800798308913</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.089330916942</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W16" t="n">
-        <v>1352.236927089455</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X16" t="n">
-        <v>1109.673030535261</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="Y16" t="n">
-        <v>1109.673030535261</v>
+        <v>1228.793760306111</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5594,28 +5594,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L18" t="n">
-        <v>109.7493563677404</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="M18" t="n">
-        <v>109.7493563677404</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N18" t="n">
-        <v>1199.06430284061</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O18" t="n">
-        <v>1199.06430284061</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>986.2298637519162</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>814.2573006308322</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>650.9405277576029</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1228.793760306111</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>986.2298637519162</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>986.2298637519162</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
         <v>839.4070255988738</v>
@@ -5752,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M21" t="n">
-        <v>739.6560874287652</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1844.556469506584</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1844.556469506584</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5989,22 +5989,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>786.1869982294937</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2720.098147267829</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
         <v>4541.493855905342</v>
@@ -6068,28 +6068,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L24" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M24" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N24" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O24" t="n">
-        <v>730.647150085061</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>747.5965237391339</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>1822.202732251165</v>
+        <v>1963.23302853511</v>
       </c>
       <c r="V25" t="n">
-        <v>1822.202732251165</v>
+        <v>1681.521561143139</v>
       </c>
       <c r="W25" t="n">
-        <v>1822.202732251165</v>
+        <v>1406.669157315652</v>
       </c>
       <c r="X25" t="n">
-        <v>1579.63883569697</v>
+        <v>1164.105260761457</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>937.7624924511995</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4701.661275036462</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4421.476826536767</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4421.476826536767</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4421.476826536767</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>4421.476826536767</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6542,25 +6542,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4017.903765402536</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C31" t="n">
-        <v>3845.931202281452</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D31" t="n">
-        <v>3682.614429408222</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E31" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U31" t="n">
-        <v>4716.123969816831</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V31" t="n">
-        <v>4434.41250242486</v>
+        <v>1546.270294003504</v>
       </c>
       <c r="W31" t="n">
-        <v>4434.41250242486</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X31" t="n">
-        <v>4434.41250242486</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y31" t="n">
-        <v>4208.069734114601</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
         <v>4541.493855905342</v>
@@ -6788,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3401.365604982158</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C34" t="n">
-        <v>3401.365604982158</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D34" t="n">
-        <v>3401.365604982158</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E34" t="n">
-        <v>3272.841386809506</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F34" t="n">
-        <v>3100.979612584067</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831969</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004482</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>3817.874342004482</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y34" t="n">
-        <v>3591.531573694224</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>971.931772215671</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.7245472657505</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>552.7245472657505</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D37" t="n">
-        <v>417.9607561231137</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E37" t="n">
-        <v>417.9607561231137</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.8905159778161</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7265,16 +7265,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>102.3027134058285</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O39" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1067.07923602298</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>895.1066729018962</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1726.151869599499</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1483.587973045304</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1257.245204735046</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7393,67 +7393,67 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883228</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623576</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>325.1003961287815</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>1040.608704104281</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1970.233751723557</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2974.519853142615</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>3950.770911629316</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7487,22 +7487,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>1165.735894343786</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N42" t="n">
-        <v>1165.735894343786</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O42" t="n">
         <v>1910.990343986338</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1185.483835930071</v>
+        <v>543.5554397491876</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808987</v>
+        <v>371.5828766281036</v>
       </c>
       <c r="D43" t="n">
-        <v>850.194499935758</v>
+        <v>371.5828766281036</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886115</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631719</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7584,37 +7584,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="T43" t="n">
-        <v>1992.33777973203</v>
+        <v>2039.37639304486</v>
       </c>
       <c r="U43" t="n">
-        <v>1992.33777973203</v>
+        <v>1759.191944545164</v>
       </c>
       <c r="V43" t="n">
-        <v>1710.626312340059</v>
+        <v>1477.480477153193</v>
       </c>
       <c r="W43" t="n">
-        <v>1435.773908512572</v>
+        <v>1202.628073325706</v>
       </c>
       <c r="X43" t="n">
-        <v>1375.649804642137</v>
+        <v>960.0641767715111</v>
       </c>
       <c r="Y43" t="n">
-        <v>1375.649804642137</v>
+        <v>733.7214084612532</v>
       </c>
     </row>
     <row r="44">
@@ -7630,67 +7630,67 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>786.1869982294937</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2720.098147267829</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3696.34920575453</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O44" t="n">
-        <v>4541.493855905342</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>648.6278400003578</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M45" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N45" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O45" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P45" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>742.8905159778161</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C46" t="n">
-        <v>570.9179528567321</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>407.6011799835028</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>407.6011799835028</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.8905159778161</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>38.06915396220047</v>
+        <v>519.5412919487766</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865901</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.207954053399</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884142</v>
+        <v>135.2436609954293</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641995</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681978</v>
+        <v>506.2917778681968</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662962</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675089</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761904</v>
+        <v>506.9485808761895</v>
       </c>
       <c r="P3" t="n">
-        <v>389.8761087718109</v>
+        <v>122.9560619862792</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.2582520094597</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>29.03818836740821</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
@@ -8227,10 +8227,10 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O5" t="n">
-        <v>571.1449214366446</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8291,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>88.51522805109107</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>378.9827212526459</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>102.4815180266284</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>548.1209608588846</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8543,16 +8543,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>378.5549082613589</v>
+        <v>176.6411400339851</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>220.0524529451672</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8941,13 +8941,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.60750039798609</v>
+        <v>236.8553498857477</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9005,13 +9005,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>225.6703421419597</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9020,10 +9020,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>133.9864418936091</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9166,16 +9166,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9242,31 +9242,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>171.1572889048716</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>740.8880544833419</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
@@ -9488,7 +9488,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>392.4461590409599</v>
+        <v>467.7720854276179</v>
       </c>
       <c r="N21" t="n">
         <v>1121.661155963915</v>
@@ -9503,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>726.5568076874005</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
@@ -9716,10 +9716,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9731,7 +9731,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>650.3413783255763</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>745.2028786174529</v>
@@ -9740,7 +9740,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>375.1268140734642</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,19 +10120,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10190,28 +10190,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>859.128966425699</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10436,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,13 +10594,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>143.6953511146608</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10661,31 +10661,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>228.1560083209544</v>
       </c>
       <c r="N36" t="n">
-        <v>501.0532250901962</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>728.3675687028222</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>575.0154519389184</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>254.4681238522057</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,13 +11068,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11083,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11153,7 +11153,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>775.9541620884372</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11299,13 +11299,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>360.2906876703342</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11314,13 +11314,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934506</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>292.2790261091175</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11396,10 +11396,10 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>116.1477950786474</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>160.2240614002185</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>145.3874838926597</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>122.2087351155108</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>98.49054987924089</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>47.18544517283262</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>84.51087971180863</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>202.0006731500499</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>22.13019988286482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.80631912921197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>97.36294473060349</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>42.1978885712067</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>37.30714779774938</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>28.26745191328655</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>117.2205539080144</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>68.10191868180787</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>180.6153947569225</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>131.2629571571247</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>546812.2472298159</v>
+        <v>546812.247229816</v>
       </c>
     </row>
     <row r="4">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>563622.5230547343</v>
+        <v>563622.5230547346</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>524198.4012100469</v>
+        <v>524198.4012100468</v>
       </c>
       <c r="C2" t="n">
-        <v>524198.401210047</v>
+        <v>524198.4012100468</v>
       </c>
       <c r="D2" t="n">
         <v>524198.401210047</v>
       </c>
       <c r="E2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="F2" t="n">
         <v>505827.3628237026</v>
       </c>
-      <c r="F2" t="n">
-        <v>505827.3628237025</v>
-      </c>
       <c r="G2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="H2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="I2" t="n">
         <v>505827.3628237026</v>
       </c>
       <c r="J2" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="K2" t="n">
         <v>505827.3628237026</v>
@@ -26346,16 +26346,16 @@
         <v>505827.3628237026</v>
       </c>
       <c r="M2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="N2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="O2" t="n">
         <v>505827.3628237026</v>
       </c>
-      <c r="O2" t="n">
-        <v>505827.3628237025</v>
-      </c>
       <c r="P2" t="n">
-        <v>505827.3628237027</v>
+        <v>505827.3628237028</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695913</v>
+        <v>162124.696069591</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361215</v>
+        <v>23406.83367361247</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802889</v>
+        <v>126577.2685802886</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701974</v>
+        <v>18646.60035701999</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.129223993176677e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203366.9722795534</v>
+        <v>203366.9722795536</v>
       </c>
       <c r="C4" t="n">
         <v>191243.7287526203</v>
@@ -26426,10 +26426,10 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="F4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="G4" t="n">
         <v>86696.74064784776</v>
@@ -26441,10 +26441,10 @@
         <v>86696.74064784776</v>
       </c>
       <c r="J4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="K4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="L4" t="n">
         <v>86696.74064784778</v>
@@ -26456,10 +26456,10 @@
         <v>86696.74064784776</v>
       </c>
       <c r="O4" t="n">
-        <v>86696.74064784765</v>
+        <v>86696.74064784779</v>
       </c>
       <c r="P4" t="n">
-        <v>86696.74064784771</v>
+        <v>86696.74064784776</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216126</v>
+        <v>63041.2228221612</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,13 +26478,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95665.51003874093</v>
+        <v>95665.51003874103</v>
       </c>
       <c r="C6" t="n">
-        <v>242101.5877463864</v>
+        <v>242101.5877463859</v>
       </c>
       <c r="D6" t="n">
         <v>265508.4214199986</v>
       </c>
       <c r="E6" t="n">
-        <v>125641.2034307846</v>
+        <v>125590.1727686004</v>
       </c>
       <c r="F6" t="n">
-        <v>341380.559987425</v>
+        <v>341329.5293252408</v>
       </c>
       <c r="G6" t="n">
-        <v>341380.559987425</v>
+        <v>341329.5293252409</v>
       </c>
       <c r="H6" t="n">
-        <v>341380.5599874251</v>
+        <v>341329.529325241</v>
       </c>
       <c r="I6" t="n">
-        <v>341380.5599874252</v>
+        <v>341329.5293252409</v>
       </c>
       <c r="J6" t="n">
-        <v>214803.2914071363</v>
+        <v>214752.2607449521</v>
       </c>
       <c r="K6" t="n">
-        <v>322733.9596304054</v>
+        <v>322682.9289682209</v>
       </c>
       <c r="L6" t="n">
-        <v>341380.5599874252</v>
+        <v>341329.5293252409</v>
       </c>
       <c r="M6" t="n">
-        <v>161316.6885322574</v>
+        <v>161265.6578700734</v>
       </c>
       <c r="N6" t="n">
-        <v>341380.5599874251</v>
+        <v>341329.5293252409</v>
       </c>
       <c r="O6" t="n">
-        <v>341380.5599874252</v>
+        <v>341329.5293252408</v>
       </c>
       <c r="P6" t="n">
-        <v>341380.5599874253</v>
+        <v>341329.529325241</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.661529991470846e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.661529991470846e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.661529991470846e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162688</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162688</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162688</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.484490074086693</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>217.7435135748899</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>180.6983260611655</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>108.3642784941328</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>371.3345117074836</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>240.8241420779645</v>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>21.43047528078489</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>61.00232379328514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27906,22 +27906,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>346.8575882671396</v>
+        <v>272.3699127117746</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>53.03736173750144</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>224.3503204328392</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -30656,7 +30656,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>3.108667030037948e-12</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>2.30455316739113</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539682</v>
+        <v>97.96403816098331</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="P3" t="n">
-        <v>368.1052675669823</v>
+        <v>101.1852207814505</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.2935975567477</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>6.65738770942173</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
@@ -34947,10 +34947,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O5" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35011,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>67.90411371775774</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P6" t="n">
-        <v>357.2118800478172</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.06155854104185</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>357.2118800478172</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>197.5373662309376</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35661,13 +35661,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.48282579338804</v>
+        <v>200.7306752811496</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>110.8145521713869</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35962,31 +35962,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>148.0605083925437</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>719.1172132785132</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
@@ -36208,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>369.3493785286319</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="N21" t="n">
         <v>1100.318127750374</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>690.7922068925911</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
@@ -36436,10 +36436,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36451,7 +36451,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>627.1694886033541</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>723.4320374126243</v>
@@ -36460,7 +36460,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,19 +36840,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>821.7380070696748</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37156,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,13 +37314,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>106.3043917586367</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N36" t="n">
-        <v>479.7101968766545</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>690.7922068925909</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>551.8435622166962</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>225.0481643666192</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,13 +37788,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37803,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37873,7 +37873,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>752.782272366215</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37952,7 +37952,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977436</v>
       </c>
       <c r="P43" t="n">
         <v>293.5345574968697</v>
@@ -38019,13 +38019,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>324.5260868755249</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38034,13 +38034,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454859</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38116,10 +38116,10 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
